--- a/pred_ohlcv/54_21/2020-01-21 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 TMTG ohlcv.xlsx
@@ -10246,7 +10246,7 @@
         <v>1098232.191763425</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>1497760.691763425</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>1497760.691763425</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>1069129.838763426</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>1053512.979763426</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>1028085.595763426</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>1093213.824763426</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>1316654.379763426</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>960174.6967634256</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>928843.3927634256</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>1080774.608763426</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>935912.7997634256</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>979435.3857634256</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>836322.0827634255</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>1015105.263763426</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>1219771.392763426</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>1254895.786763426</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>1315278.002763426</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>1133151.304763426</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>994074.8057634255</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>1777831.133363425</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>1841438.261363426</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>1987012.071498949</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>1866340.515498949</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>2011141.890041043</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>1637066.178041043</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>1677220.568041043</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>1587833.715041043</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>1415831.179041043</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>1643448.972041043</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>1929475.501041043</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>1907881.862041043</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>1867664.704041043</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>1809826.283041043</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>1884526.748041043</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>1755925.758041043</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>2050726.598641043</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>2050726.598641043</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>2331469.469641043</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>2756210.119641043</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>3189263.672641043</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>3252599.216641043</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>3181953.050441043</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>3181953.050441043</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>2867827.971441042</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>2896555.979441042</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>3191700.597141042</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>3191700.597141042</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>3315943.902141042</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>3525587.929141042</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>3540056.540141042</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>3627812.129141042</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>3903532.346141042</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>3671568.586941042</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>3378115.349941042</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>3332205.579941042</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>3225786.465941042</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>4223870.281141042</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>4770935.410141042</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>4446868.085141041</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>4470941.935141041</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>4412872.526141041</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>4584169.140492164</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>3584169.140492164</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>3584169.140492164</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-1133050.569949747</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-745343.4159497466</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-730494.0319497467</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-735208.7699497467</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-745064.4899497466</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-729264.2119497466</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-730626.9179497466</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-410017.5841465398</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-384225.9791465398</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-418430.9431465398</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-412602.2351465398</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-428204.0111465398</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-401844.3011465398</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-404594.0381465398</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-456113.9457433331</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-463704.9287433331</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-481431.8447433331</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-460468.3257433331</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-453510.1877433331</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-466245.0137433331</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-517165.2362433331</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-519582.5672433331</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-526568.3592433331</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-512099.4772433331</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-54851.1200433331</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-48464.2740433331</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-30208.4700433331</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-5547.0850433331</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-11461.8390433331</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-52575.2696433331</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-72188.61264333309</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-104006.8216433331</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-105532.9216433331</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-94113.1826433331</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-116521.7966433331</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-87399.4766433331</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-97060.93664333309</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-76192.63264333308</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-105985.1766433331</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-26146041.28384333</v>
       </c>
       <c r="H710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-26143226.01084334</v>
       </c>
       <c r="H711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-26139221.47284334</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-26038714.96884334</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-26041780.94584334</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-26037457.85684334</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-26036849.86484334</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-26036647.90384334</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-26042084.22384334</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-26040829.31094334</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-26027719.03944334</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-26029050.69444334</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-26086494.22374334</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-26080539.89974334</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-26079828.25574334</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-26082265.39874334</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-26078172.01174334</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-26078810.68674334</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-26081215.58674334</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-26085237.10474334</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-26085237.10474334</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-26082691.60174334</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-26071925.12004334</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-26557945.94697383</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-26348073.11007383</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 TMTG ohlcv.xlsx
@@ -10246,7 +10246,7 @@
         <v>1098232.191763425</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>1316654.379763426</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>960174.6967634256</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>928843.3927634256</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>836322.0827634255</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>1015105.263763426</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>1219771.392763426</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>1254895.786763426</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>1315278.002763426</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>1133151.304763426</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>994074.8057634255</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>1777831.133363425</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>1841438.261363426</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>1987012.071498949</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>1866340.515498949</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>2011141.890041043</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>1637066.178041043</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>1677220.568041043</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>1587833.715041043</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>1415831.179041043</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>1643448.972041043</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>1929475.501041043</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>1907881.862041043</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>1867664.704041043</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>4353317.492641043</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>3644826.428641043</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>3181953.050441043</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>3181953.050441043</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>3191700.597141042</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>3315943.902141042</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>3540056.540141042</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>3627812.129141042</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>3903532.346141042</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>3671568.586941042</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>3378115.349941042</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-730494.0319497467</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-735208.7699497467</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-745064.4899497466</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-729264.2119497466</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-730626.9179497466</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-410017.5841465398</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-384225.9791465398</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-418430.9431465398</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-412602.2351465398</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-428204.0111465398</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-401844.3011465398</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-404594.0381465398</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-456113.9457433331</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-463704.9287433331</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-481431.8447433331</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-460468.3257433331</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-453510.1877433331</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-466245.0137433331</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-517165.2362433331</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-519582.5672433331</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-526568.3592433331</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-512099.4772433331</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-54851.1200433331</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-48464.2740433331</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-30208.4700433331</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-5547.0850433331</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-11461.8390433331</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-52575.2696433331</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-72188.61264333309</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-104006.8216433331</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-105532.9216433331</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-94113.1826433331</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-116521.7966433331</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-26086494.22374334</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-26080539.89974334</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-26079828.25574334</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-26082265.39874334</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-26078172.01174334</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-26078810.68674334</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-26081215.58674334</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-26085237.10474334</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-26085237.10474334</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-26082691.60174334</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-26557945.94697383</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-26348073.11007383</v>
       </c>
       <c r="H882">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
